--- a/Docs/estpolis1TAS.xlsx
+++ b/Docs/estpolis1TAS.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="13995" windowHeight="5100" firstSheet="2" activeTab="2"/>
   </bookViews>
@@ -18776,14 +18776,17 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -18794,19 +18797,16 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18814,18 +18814,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -18836,6 +18824,30 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -18844,18 +18856,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -30549,7 +30549,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -30718,14 +30718,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7639" t="-17663" r="67825" b="17663"/>
+        <a:srcRect t="-21452"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -30826,14 +30826,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="15790"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -30934,14 +30934,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="33913" b="13043"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -30987,14 +30987,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="65306" b="81305"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -31040,7 +31040,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31093,7 +31093,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31148,14 +31148,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="20611"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -31201,14 +31201,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="21428"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -31254,14 +31254,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="17881"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -31307,7 +31307,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31362,7 +31362,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31415,7 +31415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31468,7 +31468,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31523,7 +31523,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31578,7 +31578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31633,14 +31633,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="19847"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -31686,7 +31686,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31741,7 +31741,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -31794,14 +31794,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="17219"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -31847,14 +31847,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="72609"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -31900,14 +31900,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="42029" t="18261"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -31953,14 +31953,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="15385" b="23214"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -33035,6 +33035,7 @@
     <hyperlink ref="A38" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33684,6 +33685,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33740,7 +33742,7 @@
       <c r="K1" s="186" t="s">
         <v>1565</v>
       </c>
-      <c r="L1" s="225" t="s">
+      <c r="L1" s="201" t="s">
         <v>2991</v>
       </c>
     </row>
@@ -34260,7 +34262,7 @@
       <c r="J31" s="196" t="s">
         <v>2941</v>
       </c>
-      <c r="K31" s="224" t="s">
+      <c r="K31" s="200" t="s">
         <v>2940</v>
       </c>
       <c r="L31" s="129"/>
@@ -34314,6 +34316,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34355,7 +34358,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -34378,12 +34382,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="30">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="223" t="s">
         <v>1687</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
     </row>
     <row r="3" spans="2:5" ht="15.75">
       <c r="B3" s="74"/>
@@ -34593,13 +34597,13 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="220" t="s">
+      <c r="B20" s="224" t="s">
         <v>728</v>
       </c>
-      <c r="C20" s="221">
+      <c r="C20" s="225">
         <v>30</v>
       </c>
-      <c r="D20" s="221">
+      <c r="D20" s="225">
         <v>41</v>
       </c>
       <c r="E20" s="76" t="s">
@@ -34607,9 +34611,9 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="220"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
       <c r="E21" s="76" t="s">
         <v>1706</v>
       </c>
@@ -35295,13 +35299,13 @@
       </c>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="220" t="s">
+      <c r="B75" s="224" t="s">
         <v>728</v>
       </c>
-      <c r="C75" s="221">
+      <c r="C75" s="225">
         <v>30</v>
       </c>
-      <c r="D75" s="221">
+      <c r="D75" s="225">
         <v>42</v>
       </c>
       <c r="E75" s="76" t="s">
@@ -35309,9 +35313,9 @@
       </c>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="220"/>
-      <c r="C76" s="221"/>
-      <c r="D76" s="221"/>
+      <c r="B76" s="224"/>
+      <c r="C76" s="225"/>
+      <c r="D76" s="225"/>
       <c r="E76" s="76" t="s">
         <v>1706</v>
       </c>
@@ -35342,7 +35346,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -35833,6 +35838,7 @@
     <hyperlink ref="A21" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -39590,6 +39596,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39711,7 +39718,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -39834,28 +39842,28 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="69" customHeight="1">
-      <c r="A17" s="223"/>
-      <c r="E17" s="222" t="s">
+      <c r="A17" s="199"/>
+      <c r="E17" s="202" t="s">
         <v>2934</v>
       </c>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="222"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
     </row>
     <row r="18" spans="1:10" ht="86.25" customHeight="1">
       <c r="A18" t="s">
         <v>787</v>
       </c>
-      <c r="E18" s="222" t="s">
+      <c r="E18" s="202" t="s">
         <v>2935</v>
       </c>
-      <c r="F18" s="222"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="222"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="54" t="s">
@@ -40349,48 +40357,48 @@
       <c r="A97" s="54" t="s">
         <v>854</v>
       </c>
-      <c r="E97" s="204" t="s">
+      <c r="E97" s="205" t="s">
         <v>854</v>
       </c>
-      <c r="F97" s="204"/>
-      <c r="G97" s="204"/>
-      <c r="H97" s="204"/>
-      <c r="I97" s="204"/>
-      <c r="J97" s="204"/>
-      <c r="K97" s="204"/>
-      <c r="L97" s="204"/>
+      <c r="F97" s="205"/>
+      <c r="G97" s="205"/>
+      <c r="H97" s="205"/>
+      <c r="I97" s="205"/>
+      <c r="J97" s="205"/>
+      <c r="K97" s="205"/>
+      <c r="L97" s="205"/>
     </row>
     <row r="98" spans="1:12" ht="22.5">
       <c r="A98" s="57" t="s">
         <v>855</v>
       </c>
-      <c r="E98" s="202" t="s">
+      <c r="E98" s="203" t="s">
         <v>1507</v>
       </c>
-      <c r="F98" s="216"/>
-      <c r="G98" s="216"/>
-      <c r="H98" s="203"/>
-      <c r="I98" s="202" t="s">
+      <c r="F98" s="212"/>
+      <c r="G98" s="212"/>
+      <c r="H98" s="204"/>
+      <c r="I98" s="203" t="s">
         <v>1514</v>
       </c>
-      <c r="J98" s="203"/>
-      <c r="K98" s="202" t="s">
+      <c r="J98" s="204"/>
+      <c r="K98" s="203" t="s">
         <v>1519</v>
       </c>
-      <c r="L98" s="203"/>
+      <c r="L98" s="204"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="58" t="s">
         <v>800</v>
       </c>
-      <c r="E99" s="217" t="s">
+      <c r="E99" s="213" t="s">
         <v>1508</v>
       </c>
-      <c r="F99" s="218"/>
-      <c r="G99" s="217" t="s">
+      <c r="F99" s="214"/>
+      <c r="G99" s="213" t="s">
         <v>1509</v>
       </c>
-      <c r="H99" s="218"/>
+      <c r="H99" s="214"/>
       <c r="I99" s="64" t="s">
         <v>1508</v>
       </c>
@@ -40511,7 +40519,7 @@
       <c r="E104" s="206"/>
       <c r="F104" s="206"/>
       <c r="G104" s="206"/>
-      <c r="H104" s="208"/>
+      <c r="H104" s="207"/>
       <c r="I104" s="65" t="s">
         <v>555</v>
       </c>
@@ -40529,10 +40537,10 @@
       <c r="A105" s="59" t="s">
         <v>858</v>
       </c>
-      <c r="E105" s="212"/>
-      <c r="F105" s="212"/>
-      <c r="G105" s="212"/>
-      <c r="H105" s="213"/>
+      <c r="E105" s="208"/>
+      <c r="F105" s="208"/>
+      <c r="G105" s="208"/>
+      <c r="H105" s="209"/>
       <c r="I105" s="65" t="s">
         <v>212</v>
       </c>
@@ -40550,14 +40558,14 @@
       <c r="A106" s="59" t="s">
         <v>859</v>
       </c>
-      <c r="E106" s="202" t="s">
+      <c r="E106" s="203" t="s">
         <v>1526</v>
       </c>
-      <c r="F106" s="203"/>
-      <c r="G106" s="202" t="s">
+      <c r="F106" s="204"/>
+      <c r="G106" s="203" t="s">
         <v>1529</v>
       </c>
-      <c r="H106" s="203"/>
+      <c r="H106" s="204"/>
       <c r="I106" s="55"/>
       <c r="J106" s="55"/>
       <c r="K106" s="55"/>
@@ -40825,31 +40833,31 @@
       <c r="A141" s="54" t="s">
         <v>882</v>
       </c>
-      <c r="E141" s="204" t="s">
+      <c r="E141" s="205" t="s">
         <v>882</v>
       </c>
-      <c r="F141" s="204"/>
-      <c r="G141" s="204"/>
-      <c r="H141" s="204"/>
-      <c r="I141" s="204"/>
-      <c r="J141" s="204"/>
+      <c r="F141" s="205"/>
+      <c r="G141" s="205"/>
+      <c r="H141" s="205"/>
+      <c r="I141" s="205"/>
+      <c r="J141" s="205"/>
     </row>
     <row r="142" spans="1:10" ht="22.5">
       <c r="A142" s="57" t="s">
         <v>1567</v>
       </c>
-      <c r="E142" s="202" t="s">
+      <c r="E142" s="203" t="s">
         <v>1507</v>
       </c>
-      <c r="F142" s="203"/>
-      <c r="G142" s="202" t="s">
+      <c r="F142" s="204"/>
+      <c r="G142" s="203" t="s">
         <v>1514</v>
       </c>
-      <c r="H142" s="203"/>
-      <c r="I142" s="202" t="s">
+      <c r="H142" s="204"/>
+      <c r="I142" s="203" t="s">
         <v>1535</v>
       </c>
-      <c r="J142" s="203"/>
+      <c r="J142" s="204"/>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="58" t="s">
@@ -40971,47 +40979,47 @@
         <v>884</v>
       </c>
       <c r="E148" s="206"/>
-      <c r="F148" s="208"/>
+      <c r="F148" s="207"/>
       <c r="G148" s="65" t="s">
         <v>567</v>
       </c>
       <c r="H148" s="65" t="s">
         <v>1533</v>
       </c>
-      <c r="I148" s="214"/>
+      <c r="I148" s="215"/>
       <c r="J148" s="206"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="59" t="s">
         <v>885</v>
       </c>
-      <c r="E149" s="212"/>
-      <c r="F149" s="213"/>
+      <c r="E149" s="208"/>
+      <c r="F149" s="209"/>
       <c r="G149" s="65" t="s">
         <v>216</v>
       </c>
       <c r="H149" s="65" t="s">
         <v>1534</v>
       </c>
-      <c r="I149" s="215"/>
-      <c r="J149" s="212"/>
+      <c r="I149" s="216"/>
+      <c r="J149" s="208"/>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="60" t="s">
         <v>886</v>
       </c>
-      <c r="E150" s="202" t="s">
+      <c r="E150" s="203" t="s">
         <v>1536</v>
       </c>
-      <c r="F150" s="203"/>
-      <c r="G150" s="202" t="s">
+      <c r="F150" s="204"/>
+      <c r="G150" s="203" t="s">
         <v>1537</v>
       </c>
-      <c r="H150" s="203"/>
-      <c r="I150" s="202" t="s">
+      <c r="H150" s="204"/>
+      <c r="I150" s="203" t="s">
         <v>1539</v>
       </c>
-      <c r="J150" s="203"/>
+      <c r="J150" s="204"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="62" t="s">
@@ -41110,7 +41118,7 @@
         <v>888</v>
       </c>
       <c r="E155" s="206"/>
-      <c r="F155" s="208"/>
+      <c r="F155" s="207"/>
       <c r="G155" s="65" t="s">
         <v>318</v>
       </c>
@@ -41128,10 +41136,10 @@
       <c r="A156" s="59" t="s">
         <v>802</v>
       </c>
-      <c r="E156" s="207"/>
-      <c r="F156" s="207"/>
+      <c r="E156" s="217"/>
+      <c r="F156" s="217"/>
       <c r="G156" s="206"/>
-      <c r="H156" s="208"/>
+      <c r="H156" s="207"/>
       <c r="I156" s="65" t="s">
         <v>218</v>
       </c>
@@ -41143,10 +41151,10 @@
       <c r="A157" s="59" t="s">
         <v>803</v>
       </c>
-      <c r="E157" s="207"/>
-      <c r="F157" s="207"/>
-      <c r="G157" s="207"/>
-      <c r="H157" s="209"/>
+      <c r="E157" s="217"/>
+      <c r="F157" s="217"/>
+      <c r="G157" s="217"/>
+      <c r="H157" s="218"/>
       <c r="I157" s="65" t="s">
         <v>257</v>
       </c>
@@ -41168,31 +41176,31 @@
       <c r="A160" s="59" t="s">
         <v>890</v>
       </c>
-      <c r="E160" s="204" t="s">
+      <c r="E160" s="205" t="s">
         <v>887</v>
       </c>
-      <c r="F160" s="204"/>
-      <c r="G160" s="204"/>
-      <c r="H160" s="204"/>
-      <c r="I160" s="204"/>
-      <c r="J160" s="204"/>
+      <c r="F160" s="205"/>
+      <c r="G160" s="205"/>
+      <c r="H160" s="205"/>
+      <c r="I160" s="205"/>
+      <c r="J160" s="205"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="60" t="s">
         <v>891</v>
       </c>
-      <c r="E161" s="202" t="s">
+      <c r="E161" s="203" t="s">
         <v>1507</v>
       </c>
-      <c r="F161" s="203"/>
-      <c r="G161" s="202" t="s">
+      <c r="F161" s="204"/>
+      <c r="G161" s="203" t="s">
         <v>1514</v>
       </c>
-      <c r="H161" s="203"/>
-      <c r="I161" s="202" t="s">
+      <c r="H161" s="204"/>
+      <c r="I161" s="203" t="s">
         <v>1519</v>
       </c>
-      <c r="J161" s="203"/>
+      <c r="J161" s="204"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="62" t="s">
@@ -41314,7 +41322,7 @@
         <v>2302</v>
       </c>
       <c r="E167" s="206"/>
-      <c r="F167" s="208"/>
+      <c r="F167" s="207"/>
       <c r="G167" s="65" t="s">
         <v>567</v>
       </c>
@@ -41332,8 +41340,8 @@
       <c r="A168" s="62" t="s">
         <v>787</v>
       </c>
-      <c r="E168" s="207"/>
-      <c r="F168" s="209"/>
+      <c r="E168" s="217"/>
+      <c r="F168" s="218"/>
       <c r="G168" s="65" t="s">
         <v>216</v>
       </c>
@@ -41351,10 +41359,10 @@
       <c r="A169" s="54" t="s">
         <v>894</v>
       </c>
-      <c r="E169" s="207"/>
-      <c r="F169" s="207"/>
+      <c r="E169" s="217"/>
+      <c r="F169" s="217"/>
       <c r="G169" s="206"/>
-      <c r="H169" s="208"/>
+      <c r="H169" s="207"/>
       <c r="I169" s="65" t="s">
         <v>1540</v>
       </c>
@@ -41366,10 +41374,10 @@
       <c r="A170" s="57" t="s">
         <v>895</v>
       </c>
-      <c r="E170" s="207"/>
-      <c r="F170" s="207"/>
-      <c r="G170" s="207"/>
-      <c r="H170" s="209"/>
+      <c r="E170" s="217"/>
+      <c r="F170" s="217"/>
+      <c r="G170" s="217"/>
+      <c r="H170" s="218"/>
       <c r="I170" s="65" t="s">
         <v>569</v>
       </c>
@@ -41381,10 +41389,10 @@
       <c r="A171" s="58" t="s">
         <v>790</v>
       </c>
-      <c r="E171" s="207"/>
-      <c r="F171" s="207"/>
-      <c r="G171" s="207"/>
-      <c r="H171" s="209"/>
+      <c r="E171" s="217"/>
+      <c r="F171" s="217"/>
+      <c r="G171" s="217"/>
+      <c r="H171" s="218"/>
       <c r="I171" s="65" t="s">
         <v>575</v>
       </c>
@@ -41589,31 +41597,31 @@
       <c r="A201" s="54" t="s">
         <v>918</v>
       </c>
-      <c r="E201" s="204" t="s">
+      <c r="E201" s="205" t="s">
         <v>918</v>
       </c>
-      <c r="F201" s="204"/>
-      <c r="G201" s="204"/>
-      <c r="H201" s="204"/>
-      <c r="I201" s="204"/>
-      <c r="J201" s="204"/>
+      <c r="F201" s="205"/>
+      <c r="G201" s="205"/>
+      <c r="H201" s="205"/>
+      <c r="I201" s="205"/>
+      <c r="J201" s="205"/>
     </row>
     <row r="202" spans="1:10" ht="33.75">
       <c r="A202" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="E202" s="202" t="s">
+      <c r="E202" s="203" t="s">
         <v>1507</v>
       </c>
-      <c r="F202" s="203"/>
-      <c r="G202" s="202" t="s">
+      <c r="F202" s="204"/>
+      <c r="G202" s="203" t="s">
         <v>1514</v>
       </c>
-      <c r="H202" s="203"/>
-      <c r="I202" s="202" t="s">
+      <c r="H202" s="204"/>
+      <c r="I202" s="203" t="s">
         <v>1519</v>
       </c>
-      <c r="J202" s="203"/>
+      <c r="J202" s="204"/>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="58" t="s">
@@ -41806,7 +41814,7 @@
       <c r="E211" s="206"/>
       <c r="F211" s="206"/>
       <c r="G211" s="206"/>
-      <c r="H211" s="208"/>
+      <c r="H211" s="207"/>
       <c r="I211" s="65" t="s">
         <v>575</v>
       </c>
@@ -41818,10 +41826,10 @@
       <c r="A212" s="62" t="s">
         <v>787</v>
       </c>
-      <c r="E212" s="207"/>
-      <c r="F212" s="207"/>
-      <c r="G212" s="207"/>
-      <c r="H212" s="209"/>
+      <c r="E212" s="217"/>
+      <c r="F212" s="217"/>
+      <c r="G212" s="217"/>
+      <c r="H212" s="218"/>
       <c r="I212" s="65" t="s">
         <v>557</v>
       </c>
@@ -41833,10 +41841,10 @@
       <c r="A213" s="54" t="s">
         <v>908</v>
       </c>
-      <c r="E213" s="207"/>
-      <c r="F213" s="207"/>
-      <c r="G213" s="207"/>
-      <c r="H213" s="209"/>
+      <c r="E213" s="217"/>
+      <c r="F213" s="217"/>
+      <c r="G213" s="217"/>
+      <c r="H213" s="218"/>
       <c r="I213" s="66" t="s">
         <v>442</v>
       </c>
@@ -41874,11 +41882,11 @@
       <c r="A218" s="59" t="s">
         <v>1675</v>
       </c>
-      <c r="E218" s="205" t="s">
+      <c r="E218" s="219" t="s">
         <v>1678</v>
       </c>
-      <c r="F218" s="205"/>
-      <c r="G218" s="205"/>
+      <c r="F218" s="219"/>
+      <c r="G218" s="219"/>
       <c r="H218" t="s">
         <v>2303</v>
       </c>
@@ -43785,14 +43793,14 @@
       <c r="F557" s="129">
         <v>3419</v>
       </c>
-      <c r="G557" s="199">
+      <c r="G557" s="220">
         <v>5998</v>
       </c>
-      <c r="H557" s="199"/>
-      <c r="I557" s="199">
+      <c r="H557" s="220"/>
+      <c r="I557" s="220">
         <v>6223</v>
       </c>
-      <c r="J557" s="199"/>
+      <c r="J557" s="220"/>
     </row>
     <row r="558" spans="1:10">
       <c r="A558" s="60" t="s">
@@ -44142,17 +44150,17 @@
       <c r="F606" s="194">
         <v>14133</v>
       </c>
-      <c r="G606" s="200">
+      <c r="G606" s="221">
         <v>28466</v>
       </c>
-      <c r="H606" s="201"/>
+      <c r="H606" s="222"/>
       <c r="I606" s="194">
         <v>15533</v>
       </c>
-      <c r="J606" s="200">
+      <c r="J606" s="221">
         <v>28016</v>
       </c>
-      <c r="K606" s="201"/>
+      <c r="K606" s="222"/>
       <c r="L606" s="194">
         <v>13883</v>
       </c>
@@ -47005,6 +47013,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="G557:H557"/>
+    <mergeCell ref="I557:J557"/>
+    <mergeCell ref="G606:H606"/>
+    <mergeCell ref="J606:K606"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="E201:J201"/>
+    <mergeCell ref="E218:G218"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="E160:J160"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="E141:J141"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="I149:J149"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="E106:F106"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="G106:H106"/>
@@ -47021,53 +47076,6 @@
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="G99:H99"/>
     <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="I150:J150"/>
-    <mergeCell ref="E141:J141"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="I142:J142"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="E160:J160"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="E201:J201"/>
-    <mergeCell ref="E218:G218"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="G557:H557"/>
-    <mergeCell ref="I557:J557"/>
-    <mergeCell ref="G606:H606"/>
-    <mergeCell ref="J606:K606"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="I202:J202"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -47075,7 +47083,8 @@
     <hyperlink ref="A782" r:id="rId2" display="http://www8.plala.or.jp/tabito/estpolis/est1/doragonegg.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -50440,6 +50449,7 @@
     <hyperlink ref="B860" r:id="rId17" display="http://www.f6.dion.ne.jp/~lufia/urawaza7.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -50940,7 +50950,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
